--- a/Android/ExcelData/BossListTable.xlsx
+++ b/Android/ExcelData/BossListTable.xlsx
@@ -5,27 +5,39 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4224A88D-37D6-483B-9833-6D80FB18632D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86E8EE7-C488-45F3-A88C-3655BA897944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6495" yWindow="2115" windowWidth="30060" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="1815" windowWidth="34815" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="!boss_list_data" sheetId="10" r:id="rId1"/>
+    <sheet name="boss_data" sheetId="10" r:id="rId1"/>
+    <sheet name="boss_stage_data" sheetId="11" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,14 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zone_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss_List_Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>boss_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zone_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>story_boss_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,6 +108,119 @@
   </si>
   <si>
     <t>enter_limit_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss_stage_group_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 스테이지 그룹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 그룹 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이브 그룹 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 넘버링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 명칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클리어 시 캐릭터 경험치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호감도 경험치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지급 골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통상 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초회 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wave_group_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage_ordering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character_exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>destiny_exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeat_reward_group_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_reward_group_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_name_stage_9001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_name_stage_9002</t>
+  </si>
+  <si>
+    <t>system_name_stage_9003</t>
+  </si>
+  <si>
+    <t>system_name_stage_9004</t>
+  </si>
+  <si>
+    <t>recomment_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권장 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss_Stage_Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss_stage_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss_Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,7 +666,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -561,7 +674,7 @@
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.25" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
@@ -569,35 +682,35 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -620,25 +733,25 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -646,22 +759,301 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1001</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4">
-        <v>900001</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G5" s="4">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E92B23D-72D5-4693-8143-E5597E2FB87F}">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1001</v>
+      </c>
+      <c r="C5" s="4">
+        <v>9000011</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="4">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>500</v>
+      </c>
+      <c r="I5" s="4">
+        <v>10001012</v>
+      </c>
+      <c r="J5" s="4">
+        <v>11001012</v>
+      </c>
+      <c r="K5" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1001</v>
+      </c>
+      <c r="C6" s="4">
+        <v>9000012</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="4">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I6" s="4">
+        <v>10001013</v>
+      </c>
+      <c r="J6" s="4">
+        <v>11001013</v>
+      </c>
+      <c r="K6" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1001</v>
+      </c>
+      <c r="C7" s="4">
+        <v>9000013</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="4">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1500</v>
+      </c>
+      <c r="I7" s="4">
+        <v>10001014</v>
+      </c>
+      <c r="J7" s="4">
+        <v>11001014</v>
+      </c>
+      <c r="K7" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1001</v>
+      </c>
+      <c r="C8" s="4">
+        <v>9000014</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="4">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I8" s="4">
+        <v>10001015</v>
+      </c>
+      <c r="J8" s="4">
+        <v>11001015</v>
+      </c>
+      <c r="K8" s="4">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/BossListTable.xlsx
+++ b/Android/ExcelData/BossListTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86E8EE7-C488-45F3-A88C-3655BA897944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36836CDF-4E76-4742-8F23-EABE7ED06C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1815" windowWidth="34815" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1530" yWindow="3960" windowWidth="34815" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="boss_data" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,14 +100,6 @@
   </si>
   <si>
     <t>system_boss_skill_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입장 제한 횟수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enter_limit_count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -663,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -677,15 +669,14 @@
     <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -696,7 +687,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -704,11 +695,8 @@
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -727,11 +715,8 @@
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -742,7 +727,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>14</v>
@@ -750,11 +735,8 @@
       <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -773,8 +755,45 @@
       <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="4">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1001</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1001</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -808,42 +827,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -883,37 +902,37 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="K4" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -930,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F5" s="4">
         <v>10</v>
@@ -965,7 +984,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F6" s="4">
         <v>10</v>
@@ -1000,7 +1019,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F7" s="4">
         <v>10</v>
@@ -1035,7 +1054,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F8" s="4">
         <v>10</v>

--- a/Android/ExcelData/BossListTable.xlsx
+++ b/Android/ExcelData/BossListTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36836CDF-4E76-4742-8F23-EABE7ED06C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FA1484-4B16-4DC7-BAB5-C636C4A15F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="3960" windowWidth="34815" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="375" yWindow="1020" windowWidth="34815" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="boss_data" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,6 +213,14 @@
   </si>
   <si>
     <t>Boss_Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 그룹 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss_group_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -655,144 +663,186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
-    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="4">
+        <v>10001</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="4">
         <v>1001</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="4">
+        <v>10001</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="4">
         <v>1001</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="4">
+        <v>10001</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="4">
         <v>1001</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4">
+        <v>10001</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1001</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Android/ExcelData/BossListTable.xlsx
+++ b/Android/ExcelData/BossListTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FA1484-4B16-4DC7-BAB5-C636C4A15F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F27655A-52C5-42B2-B69E-EBC14352C66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="1020" windowWidth="34815" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="boss_data" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,6 +221,18 @@
   </si>
   <si>
     <t>boss_group_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리팹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefab_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Popup/UI/BossDungeon/BossStageEntrySlot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -295,7 +307,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -318,13 +330,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -347,6 +383,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -663,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -678,37 +726,41 @@
     <col min="5" max="5" width="20.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -730,8 +782,11 @@
       <c r="G3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -753,8 +808,11 @@
       <c r="G4" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -776,8 +834,11 @@
       <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -799,8 +860,11 @@
       <c r="G6" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -822,8 +886,11 @@
       <c r="G7" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -844,6 +911,9 @@
       </c>
       <c r="G8" s="4" t="s">
         <v>15</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -856,7 +926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E92B23D-72D5-4693-8143-E5597E2FB87F}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/Android/ExcelData/BossListTable.xlsx
+++ b/Android/ExcelData/BossListTable.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F27655A-52C5-42B2-B69E-EBC14352C66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1C6DE4-0C43-4B47-BD2A-DBBC927F7156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="boss_data" sheetId="10" r:id="rId1"/>
-    <sheet name="boss_stage_data" sheetId="11" r:id="rId2"/>
+    <sheet name="!참조_ENUM" sheetId="12" r:id="rId1"/>
+    <sheet name="boss_data" sheetId="10" r:id="rId2"/>
+    <sheet name="boss_stage_data" sheetId="11" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,6 +237,37 @@
   </si>
   <si>
     <t>Assets/AssetResources/Prefabs/Popup/UI/BossDungeon/BossStageEntrySlot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던전 오픈 게임 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM:GAME_TYPE:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_game_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던전 오픈 게임 타입(기획)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#open_game_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 스토리 모드</t>
+  </si>
+  <si>
+    <t>오픈 조건 던전 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_dungeon_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -275,7 +310,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,8 +341,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -330,37 +371,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -385,17 +402,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -412,6 +420,242 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="@tribe"/>
+      <sheetName val="@stage"/>
+      <sheetName val="@position"/>
+      <sheetName val="@role"/>
+      <sheetName val="@npc"/>
+      <sheetName val="@target_rule"/>
+      <sheetName val="@character_sort"/>
+      <sheetName val="@second_target_rule"/>
+      <sheetName val="@effect"/>
+      <sheetName val="@stat"/>
+      <sheetName val="@team_type"/>
+      <sheetName val="@touch_body_type"/>
+      <sheetName val="@touch_gesture_type"/>
+      <sheetName val="@target_type"/>
+      <sheetName val="@onetime_effect_type"/>
+      <sheetName val="@duration_effect_type"/>
+      <sheetName val="@game_type"/>
+      <sheetName val="@persistence_type"/>
+      <sheetName val="@projectile_type"/>
+      <sheetName val="@inequality_type"/>
+      <sheetName val="@skill_type"/>
+      <sheetName val="@Limit"/>
+      <sheetName val="@item_type_v2"/>
+      <sheetName val="@goods_type"/>
+      <sheetName val="@piece_type"/>
+      <sheetName val="@eqipment_type"/>
+      <sheetName val="@drop_type"/>
+      <sheetName val="@repeat_type"/>
+      <sheetName val="@charge_type"/>
+      <sheetName val="@reward_type"/>
+      <sheetName val="@effect_count_type"/>
+      <sheetName val="@love_level_type"/>
+      <sheetName val="@attribute_type"/>
+      <sheetName val="@item_type"/>
+      <sheetName val="@sd_body_type"/>
+      <sheetName val="@stage_common"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TRIBE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SECOND_TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>STAT_MULTIPLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ONETIME_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DURATION_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="16">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>GAME_TYPE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>type</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>value</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>comment</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>STORY_MODE</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>1 스토리 모드</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>BOSS_DUNGEON_MODE</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>2 보스 던전 모드</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>EDITOR_SKILL_PREVIEW_MODE</v>
+          </cell>
+          <cell r="B7">
+            <v>1001</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>1001 에디터에서 스킬 미리보기 모드(에디터에서만 사용)</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>EDITOR_SKILL_EDIT_MODE</v>
+          </cell>
+          <cell r="B8">
+            <v>1002</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>1002 에디터에서 스킬 편집 모드(에디터에서만 사용)</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="17">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PERSISTENCE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SKILL_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="21">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>LIMIT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_COUNT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ATTRIBUTE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -710,11 +954,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65AF2720-D14A-4CB1-8D53-42A966632386}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H8"/>
+      <selection activeCell="A2" sqref="A2:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="str">
+        <f>'[1]@game_type'!$A$1</f>
+        <v>GAME_TYPE</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="str">
+        <f>'[1]@game_type'!$A3</f>
+        <v>type</v>
+      </c>
+      <c r="B2" s="8" t="str">
+        <f>'[1]@game_type'!$B3</f>
+        <v>value</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>'[1]@game_type'!$C3</f>
+        <v>comment</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="str">
+        <f>'[1]@game_type'!$A4</f>
+        <v>NONE</v>
+      </c>
+      <c r="B3" s="4">
+        <f>'[1]@game_type'!$B4</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="str">
+        <f>'[1]@game_type'!$C4</f>
+        <v>NONE</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="str">
+        <f>'[1]@game_type'!$A5</f>
+        <v>STORY_MODE</v>
+      </c>
+      <c r="B4" s="4">
+        <f>'[1]@game_type'!$B5</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="str">
+        <f>'[1]@game_type'!$C5</f>
+        <v>1 스토리 모드</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="str">
+        <f>'[1]@game_type'!$A6</f>
+        <v>BOSS_DUNGEON_MODE</v>
+      </c>
+      <c r="B5" s="4">
+        <f>'[1]@game_type'!$B6</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f>'[1]@game_type'!$C6</f>
+        <v>2 보스 던전 모드</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="str">
+        <f>'[1]@game_type'!$A7</f>
+        <v>EDITOR_SKILL_PREVIEW_MODE</v>
+      </c>
+      <c r="B6" s="4">
+        <f>'[1]@game_type'!$B7</f>
+        <v>1001</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <f>'[1]@game_type'!$C7</f>
+        <v>1001 에디터에서 스킬 미리보기 모드(에디터에서만 사용)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="str">
+        <f>'[1]@game_type'!$A8</f>
+        <v>EDITOR_SKILL_EDIT_MODE</v>
+      </c>
+      <c r="B7" s="4">
+        <f>'[1]@game_type'!$B8</f>
+        <v>1002</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f>'[1]@game_type'!$C8</f>
+        <v>1002 에디터에서 스킬 편집 모드(에디터에서만 사용)</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="A2:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -727,40 +1081,52 @@
     <col min="6" max="6" width="15.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.625" customWidth="1"/>
+    <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -785,8 +1151,17 @@
       <c r="H3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -811,8 +1186,17 @@
       <c r="H4" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -834,11 +1218,21 @@
       <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$7,MATCH(J5,'!참조_ENUM'!$C$3:$C$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1001101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -852,7 +1246,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="4">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>9</v>
@@ -860,11 +1254,21 @@
       <c r="G6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$7,MATCH(J6,'!참조_ENUM'!$C$3:$C$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1001115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -878,7 +1282,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="4">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>9</v>
@@ -886,11 +1290,21 @@
       <c r="G7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$7,MATCH(J7,'!참조_ENUM'!$C$3:$C$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1002115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -904,7 +1318,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="4">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>9</v>
@@ -912,22 +1326,44 @@
       <c r="G8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="4" t="s">
         <v>49</v>
+      </c>
+      <c r="I8" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$7,MATCH(J8,'!참조_ENUM'!$C$3:$C$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1003115</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AF24D3A8-B0E9-4D10-8F1D-0CC139A4C998}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$C$3:$C$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>J5:J8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E92B23D-72D5-4693-8143-E5597E2FB87F}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1057,7 +1493,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>1</v>
+        <v>100101</v>
       </c>
       <c r="B5" s="4">
         <v>1001</v>
@@ -1092,7 +1528,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>2</v>
+        <v>100102</v>
       </c>
       <c r="B6" s="4">
         <v>1001</v>
@@ -1127,7 +1563,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>3</v>
+        <v>100103</v>
       </c>
       <c r="B7" s="4">
         <v>1001</v>
@@ -1162,7 +1598,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>4</v>
+        <v>100104</v>
       </c>
       <c r="B8" s="4">
         <v>1001</v>
@@ -1192,6 +1628,426 @@
         <v>11001015</v>
       </c>
       <c r="K8" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>100201</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C9" s="4">
+        <v>9000011</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="4">
+        <v>10</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>500</v>
+      </c>
+      <c r="I9" s="4">
+        <v>10001012</v>
+      </c>
+      <c r="J9" s="4">
+        <v>11001012</v>
+      </c>
+      <c r="K9" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>100202</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C10" s="4">
+        <v>9000012</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="4">
+        <v>10</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I10" s="4">
+        <v>10001013</v>
+      </c>
+      <c r="J10" s="4">
+        <v>11001013</v>
+      </c>
+      <c r="K10" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>100203</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C11" s="4">
+        <v>9000013</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="4">
+        <v>10</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1500</v>
+      </c>
+      <c r="I11" s="4">
+        <v>10001014</v>
+      </c>
+      <c r="J11" s="4">
+        <v>11001014</v>
+      </c>
+      <c r="K11" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>100204</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C12" s="4">
+        <v>9000014</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="4">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I12" s="4">
+        <v>10001015</v>
+      </c>
+      <c r="J12" s="4">
+        <v>11001015</v>
+      </c>
+      <c r="K12" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>100301</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1003</v>
+      </c>
+      <c r="C13" s="4">
+        <v>9000011</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="4">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>500</v>
+      </c>
+      <c r="I13" s="4">
+        <v>10001012</v>
+      </c>
+      <c r="J13" s="4">
+        <v>11001012</v>
+      </c>
+      <c r="K13" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>100302</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1003</v>
+      </c>
+      <c r="C14" s="4">
+        <v>9000012</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="4">
+        <v>10</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I14" s="4">
+        <v>10001013</v>
+      </c>
+      <c r="J14" s="4">
+        <v>11001013</v>
+      </c>
+      <c r="K14" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>100303</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1003</v>
+      </c>
+      <c r="C15" s="4">
+        <v>9000013</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="4">
+        <v>10</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1500</v>
+      </c>
+      <c r="I15" s="4">
+        <v>10001014</v>
+      </c>
+      <c r="J15" s="4">
+        <v>11001014</v>
+      </c>
+      <c r="K15" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>100304</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1003</v>
+      </c>
+      <c r="C16" s="4">
+        <v>9000014</v>
+      </c>
+      <c r="D16" s="4">
+        <v>4</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="4">
+        <v>10</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I16" s="4">
+        <v>10001015</v>
+      </c>
+      <c r="J16" s="4">
+        <v>11001015</v>
+      </c>
+      <c r="K16" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>100401</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1004</v>
+      </c>
+      <c r="C17" s="4">
+        <v>9000011</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="4">
+        <v>10</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <v>500</v>
+      </c>
+      <c r="I17" s="4">
+        <v>10001012</v>
+      </c>
+      <c r="J17" s="4">
+        <v>11001012</v>
+      </c>
+      <c r="K17" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>100402</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1004</v>
+      </c>
+      <c r="C18" s="4">
+        <v>9000012</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="4">
+        <v>10</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I18" s="4">
+        <v>10001013</v>
+      </c>
+      <c r="J18" s="4">
+        <v>11001013</v>
+      </c>
+      <c r="K18" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>100403</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1004</v>
+      </c>
+      <c r="C19" s="4">
+        <v>9000013</v>
+      </c>
+      <c r="D19" s="4">
+        <v>3</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="4">
+        <v>10</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1500</v>
+      </c>
+      <c r="I19" s="4">
+        <v>10001014</v>
+      </c>
+      <c r="J19" s="4">
+        <v>11001014</v>
+      </c>
+      <c r="K19" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>100404</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1004</v>
+      </c>
+      <c r="C20" s="4">
+        <v>9000014</v>
+      </c>
+      <c r="D20" s="4">
+        <v>4</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="4">
+        <v>10</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I20" s="4">
+        <v>10001015</v>
+      </c>
+      <c r="J20" s="4">
+        <v>11001015</v>
+      </c>
+      <c r="K20" s="4">
         <v>120</v>
       </c>
     </row>

--- a/Android/ExcelData/BossListTable.xlsx
+++ b/Android/ExcelData/BossListTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1C6DE4-0C43-4B47-BD2A-DBBC927F7156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89FD747-B85C-4984-88E8-F3EA252AABB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1395" yWindow="1140" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="12" r:id="rId1"/>
@@ -462,6 +462,7 @@
       <sheetName val="@effect_count_type"/>
       <sheetName val="@love_level_type"/>
       <sheetName val="@attribute_type"/>
+      <sheetName val="@res_type"/>
       <sheetName val="@item_type"/>
       <sheetName val="@sd_body_type"/>
       <sheetName val="@stage_common"/>
@@ -620,21 +621,27 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="21">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>LIMIT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
       <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
+      <sheetData sheetId="26">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DROP_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
+      <sheetData sheetId="29">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>REWARD_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="30">
         <row r="1">
           <cell r="A1" t="str">
@@ -650,9 +657,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="33"/>
       <sheetData sheetId="34" refreshError="1"/>
       <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1067,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="A2:K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1362,8 +1370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E92B23D-72D5-4693-8143-E5597E2FB87F}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1517,10 +1525,10 @@
         <v>500</v>
       </c>
       <c r="I5" s="4">
-        <v>10001012</v>
+        <v>30100101</v>
       </c>
       <c r="J5" s="4">
-        <v>11001012</v>
+        <v>31100101</v>
       </c>
       <c r="K5" s="4">
         <v>30</v>
@@ -1552,10 +1560,10 @@
         <v>1000</v>
       </c>
       <c r="I6" s="4">
-        <v>10001013</v>
+        <v>30100102</v>
       </c>
       <c r="J6" s="4">
-        <v>11001013</v>
+        <v>31100102</v>
       </c>
       <c r="K6" s="4">
         <v>60</v>
@@ -1587,10 +1595,10 @@
         <v>1500</v>
       </c>
       <c r="I7" s="4">
-        <v>10001014</v>
+        <v>30100103</v>
       </c>
       <c r="J7" s="4">
-        <v>11001014</v>
+        <v>31100103</v>
       </c>
       <c r="K7" s="4">
         <v>90</v>
@@ -1622,10 +1630,10 @@
         <v>2000</v>
       </c>
       <c r="I8" s="4">
-        <v>10001015</v>
+        <v>30100104</v>
       </c>
       <c r="J8" s="4">
-        <v>11001015</v>
+        <v>31100104</v>
       </c>
       <c r="K8" s="4">
         <v>120</v>
@@ -1657,10 +1665,10 @@
         <v>500</v>
       </c>
       <c r="I9" s="4">
-        <v>10001012</v>
+        <v>30100101</v>
       </c>
       <c r="J9" s="4">
-        <v>11001012</v>
+        <v>31100101</v>
       </c>
       <c r="K9" s="4">
         <v>30</v>
@@ -1692,10 +1700,10 @@
         <v>1000</v>
       </c>
       <c r="I10" s="4">
-        <v>10001013</v>
+        <v>30100102</v>
       </c>
       <c r="J10" s="4">
-        <v>11001013</v>
+        <v>31100102</v>
       </c>
       <c r="K10" s="4">
         <v>60</v>
@@ -1727,10 +1735,10 @@
         <v>1500</v>
       </c>
       <c r="I11" s="4">
-        <v>10001014</v>
+        <v>30100103</v>
       </c>
       <c r="J11" s="4">
-        <v>11001014</v>
+        <v>31100103</v>
       </c>
       <c r="K11" s="4">
         <v>90</v>
@@ -1762,10 +1770,10 @@
         <v>2000</v>
       </c>
       <c r="I12" s="4">
-        <v>10001015</v>
+        <v>30100104</v>
       </c>
       <c r="J12" s="4">
-        <v>11001015</v>
+        <v>31100104</v>
       </c>
       <c r="K12" s="4">
         <v>120</v>
@@ -1797,10 +1805,10 @@
         <v>500</v>
       </c>
       <c r="I13" s="4">
-        <v>10001012</v>
+        <v>30100101</v>
       </c>
       <c r="J13" s="4">
-        <v>11001012</v>
+        <v>31100101</v>
       </c>
       <c r="K13" s="4">
         <v>30</v>
@@ -1832,10 +1840,10 @@
         <v>1000</v>
       </c>
       <c r="I14" s="4">
-        <v>10001013</v>
+        <v>30100102</v>
       </c>
       <c r="J14" s="4">
-        <v>11001013</v>
+        <v>31100102</v>
       </c>
       <c r="K14" s="4">
         <v>60</v>
@@ -1867,10 +1875,10 @@
         <v>1500</v>
       </c>
       <c r="I15" s="4">
-        <v>10001014</v>
+        <v>30100103</v>
       </c>
       <c r="J15" s="4">
-        <v>11001014</v>
+        <v>31100103</v>
       </c>
       <c r="K15" s="4">
         <v>90</v>
@@ -1902,10 +1910,10 @@
         <v>2000</v>
       </c>
       <c r="I16" s="4">
-        <v>10001015</v>
+        <v>30100104</v>
       </c>
       <c r="J16" s="4">
-        <v>11001015</v>
+        <v>31100104</v>
       </c>
       <c r="K16" s="4">
         <v>120</v>
@@ -1937,10 +1945,10 @@
         <v>500</v>
       </c>
       <c r="I17" s="4">
-        <v>10001012</v>
+        <v>30100101</v>
       </c>
       <c r="J17" s="4">
-        <v>11001012</v>
+        <v>31100101</v>
       </c>
       <c r="K17" s="4">
         <v>30</v>
@@ -1972,10 +1980,10 @@
         <v>1000</v>
       </c>
       <c r="I18" s="4">
-        <v>10001013</v>
+        <v>30100102</v>
       </c>
       <c r="J18" s="4">
-        <v>11001013</v>
+        <v>31100102</v>
       </c>
       <c r="K18" s="4">
         <v>60</v>
@@ -2007,10 +2015,10 @@
         <v>1500</v>
       </c>
       <c r="I19" s="4">
-        <v>10001014</v>
+        <v>30100103</v>
       </c>
       <c r="J19" s="4">
-        <v>11001014</v>
+        <v>31100103</v>
       </c>
       <c r="K19" s="4">
         <v>90</v>
@@ -2042,10 +2050,10 @@
         <v>2000</v>
       </c>
       <c r="I20" s="4">
-        <v>10001015</v>
+        <v>30100104</v>
       </c>
       <c r="J20" s="4">
-        <v>11001015</v>
+        <v>31100104</v>
       </c>
       <c r="K20" s="4">
         <v>120</v>

--- a/Android/ExcelData/BossListTable.xlsx
+++ b/Android/ExcelData/BossListTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89FD747-B85C-4984-88E8-F3EA252AABB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F722C4F9-4304-4EA0-AC73-5D08193EF382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="1140" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="12" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,208 +67,216 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>엘리자베스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#bass_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>story_boss_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 설정 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 스킬 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss_skill_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss_story_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_boss_skill_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss_stage_group_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 스테이지 그룹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 그룹 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이브 그룹 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 넘버링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 명칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클리어 시 캐릭터 경험치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호감도 경험치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지급 골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통상 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초회 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wave_group_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage_ordering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character_exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>destiny_exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeat_reward_group_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_reward_group_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_name_stage_9001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_name_stage_9002</t>
+  </si>
+  <si>
+    <t>system_name_stage_9003</t>
+  </si>
+  <si>
+    <t>system_name_stage_9004</t>
+  </si>
+  <si>
+    <t>recomment_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권장 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss_Stage_Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss_stage_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss_Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 그룹 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss_group_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리팹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefab_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Popup/UI/BossDungeon/BossStageEntrySlot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던전 오픈 게임 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM:GAME_TYPE:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_game_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던전 오픈 게임 타입(기획)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#open_game_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 스토리 모드</t>
+  </si>
+  <si>
+    <t>오픈 조건 던전 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_dungeon_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_boss_name_002</t>
+  </si>
+  <si>
+    <t>system_boss_name_003</t>
+  </si>
+  <si>
+    <t>system_boss_name_004</t>
+  </si>
+  <si>
     <t>system_boss_name_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘리자베스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#bass_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>story_boss_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스 설정 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스 스킬 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss_skill_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss_story_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>system_boss_skill_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss_stage_group_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스 스테이지 그룹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 인덱스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 그룹 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>웨이브 그룹 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 넘버링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 명칭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클리어 시 캐릭터 경험치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>호감도 경험치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지급 골드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>통상 보상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초회 보상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wave_group_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage_ordering</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>character_exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>destiny_exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>repeat_reward_group_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>first_reward_group_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>system_name_stage_9001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>system_name_stage_9002</t>
-  </si>
-  <si>
-    <t>system_name_stage_9003</t>
-  </si>
-  <si>
-    <t>system_name_stage_9004</t>
-  </si>
-  <si>
-    <t>recomment_level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>권장 레벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss_Stage_Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss_stage_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss_Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스 그룹 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss_group_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프리팹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefab_path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Popup/UI/BossDungeon/BossStageEntrySlot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>던전 오픈 게임 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENUM:GAME_TYPE:NONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>open_game_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>던전 오픈 게임 타입(기획)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#open_game_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 스토리 모드</t>
-  </si>
-  <si>
-    <t>오픈 조건 던전 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>open_dungeon_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -463,75 +471,27 @@
       <sheetName val="@love_level_type"/>
       <sheetName val="@attribute_type"/>
       <sheetName val="@res_type"/>
+      <sheetName val="!@story_type"/>
       <sheetName val="@item_type"/>
       <sheetName val="@sd_body_type"/>
-      <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TRIBE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SECOND_TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>STAT_MULTIPLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ONETIME_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="15">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>DURATION_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
       <sheetData sheetId="16">
         <row r="1">
           <cell r="A1" t="str">
@@ -605,60 +565,24 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="17">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PERSISTENCE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SKILL_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
       <sheetData sheetId="25"/>
-      <sheetData sheetId="26">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>DROP_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>REWARD_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="30">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_COUNT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
       <sheetData sheetId="31"/>
-      <sheetData sheetId="32">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ATTRIBUTE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="32"/>
       <sheetData sheetId="33"/>
-      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="34"/>
       <sheetData sheetId="35" refreshError="1"/>
       <sheetData sheetId="36" refreshError="1"/>
     </sheetDataSet>
@@ -969,19 +893,19 @@
       <selection activeCell="A2" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="str">
         <f>'[1]@game_type'!$A$1</f>
         <v>GAME_TYPE</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="str">
         <f>'[1]@game_type'!$A3</f>
         <v>type</v>
@@ -995,7 +919,7 @@
         <v>comment</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="str">
         <f>'[1]@game_type'!$A4</f>
         <v>NONE</v>
@@ -1009,7 +933,7 @@
         <v>NONE</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="str">
         <f>'[1]@game_type'!$A5</f>
         <v>STORY_MODE</v>
@@ -1023,7 +947,7 @@
         <v>1 스토리 모드</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="str">
         <f>'[1]@game_type'!$A6</f>
         <v>BOSS_DUNGEON_MODE</v>
@@ -1037,7 +961,7 @@
         <v>2 보스 던전 모드</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="str">
         <f>'[1]@game_type'!$A7</f>
         <v>EDITOR_SKILL_PREVIEW_MODE</v>
@@ -1051,7 +975,7 @@
         <v>1001 에디터에서 스킬 미리보기 모드(에디터에서만 사용)</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="str">
         <f>'[1]@game_type'!$A8</f>
         <v>EDITOR_SKILL_EDIT_MODE</v>
@@ -1075,36 +999,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.625" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" customWidth="1"/>
+    <col min="5" max="5" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.59765625" customWidth="1"/>
     <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1113,28 +1037,28 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1160,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>1</v>
@@ -1169,42 +1093,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -1212,35 +1136,35 @@
         <v>10001</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="E5" s="4">
         <v>1001</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I5" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$7,MATCH(J5,'!참조_ENUM'!$C$3:$C$7,0))</f>
         <v>1</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K5" s="4">
         <v>1001101</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -1248,35 +1172,35 @@
         <v>10001</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="E6" s="4">
         <v>1002</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I6" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$7,MATCH(J6,'!참조_ENUM'!$C$3:$C$7,0))</f>
         <v>1</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K6" s="4">
         <v>1001115</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -1284,35 +1208,35 @@
         <v>10001</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="E7" s="4">
         <v>1003</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I7" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$7,MATCH(J7,'!참조_ENUM'!$C$3:$C$7,0))</f>
         <v>1</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K7" s="4">
         <v>1002115</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -1320,29 +1244,29 @@
         <v>10001</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="E8" s="4">
         <v>1004</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I8" s="4">
         <f>INDEX('!참조_ENUM'!$B$3:$B$7,MATCH(J8,'!참조_ENUM'!$C$3:$C$7,0))</f>
         <v>1</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K8" s="4">
         <v>1003115</v>
@@ -1370,66 +1294,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E92B23D-72D5-4693-8143-E5597E2FB87F}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.69921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.8984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.69921875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1464,42 +1388,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="K4" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>100101</v>
       </c>
@@ -1513,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="4">
         <v>10</v>
@@ -1534,7 +1458,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>100102</v>
       </c>
@@ -1548,7 +1472,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="4">
         <v>10</v>
@@ -1569,7 +1493,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>100103</v>
       </c>
@@ -1583,7 +1507,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="4">
         <v>10</v>
@@ -1604,7 +1528,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>100104</v>
       </c>
@@ -1618,7 +1542,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="4">
         <v>10</v>
@@ -1639,7 +1563,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>100201</v>
       </c>
@@ -1653,7 +1577,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="4">
         <v>10</v>
@@ -1674,7 +1598,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>100202</v>
       </c>
@@ -1688,7 +1612,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="4">
         <v>10</v>
@@ -1709,7 +1633,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>100203</v>
       </c>
@@ -1723,7 +1647,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="4">
         <v>10</v>
@@ -1744,7 +1668,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>100204</v>
       </c>
@@ -1758,7 +1682,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="4">
         <v>10</v>
@@ -1779,7 +1703,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>100301</v>
       </c>
@@ -1793,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="4">
         <v>10</v>
@@ -1814,7 +1738,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>100302</v>
       </c>
@@ -1828,7 +1752,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" s="4">
         <v>10</v>
@@ -1849,7 +1773,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>100303</v>
       </c>
@@ -1863,7 +1787,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" s="4">
         <v>10</v>
@@ -1884,7 +1808,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>100304</v>
       </c>
@@ -1898,7 +1822,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" s="4">
         <v>10</v>
@@ -1919,7 +1843,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
         <v>100401</v>
       </c>
@@ -1933,7 +1857,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17" s="4">
         <v>10</v>
@@ -1954,7 +1878,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
         <v>100402</v>
       </c>
@@ -1968,7 +1892,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" s="4">
         <v>10</v>
@@ -1989,7 +1913,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="4">
         <v>100403</v>
       </c>
@@ -2003,7 +1927,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" s="4">
         <v>10</v>
@@ -2024,7 +1948,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="4">
         <v>100404</v>
       </c>
@@ -2038,7 +1962,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" s="4">
         <v>10</v>

--- a/Android/ExcelData/BossListTable.xlsx
+++ b/Android/ExcelData/BossListTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F722C4F9-4304-4EA0-AC73-5D08193EF382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D480FD2-FA99-4E30-9762-322180249048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="1005" windowWidth="35010" windowHeight="19140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="12" r:id="rId1"/>
@@ -474,9 +474,19 @@
       <sheetName val="!@story_type"/>
       <sheetName val="@item_type"/>
       <sheetName val="@sd_body_type"/>
+      <sheetName val="@stage_common"/>
+      <sheetName val="@story_type"/>
+      <sheetName val="@reward"/>
+      <sheetName val="Enums_01"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TRIBE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -569,7 +579,13 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
+      <sheetData sheetId="21">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>LIMIT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
@@ -577,7 +593,13 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
+      <sheetData sheetId="29">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>REWARD_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="30"/>
       <sheetData sheetId="31"/>
       <sheetData sheetId="32"/>
@@ -585,6 +607,10 @@
       <sheetData sheetId="34"/>
       <sheetData sheetId="35" refreshError="1"/>
       <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39" refreshError="1"/>
+      <sheetData sheetId="40" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -893,19 +919,19 @@
       <selection activeCell="A2" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'[1]@game_type'!$A$1</f>
         <v>GAME_TYPE</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="str">
         <f>'[1]@game_type'!$A3</f>
         <v>type</v>
@@ -919,7 +945,7 @@
         <v>comment</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="str">
         <f>'[1]@game_type'!$A4</f>
         <v>NONE</v>
@@ -933,7 +959,7 @@
         <v>NONE</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="str">
         <f>'[1]@game_type'!$A5</f>
         <v>STORY_MODE</v>
@@ -947,7 +973,7 @@
         <v>1 스토리 모드</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="str">
         <f>'[1]@game_type'!$A6</f>
         <v>BOSS_DUNGEON_MODE</v>
@@ -961,7 +987,7 @@
         <v>2 보스 던전 모드</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="str">
         <f>'[1]@game_type'!$A7</f>
         <v>EDITOR_SKILL_PREVIEW_MODE</v>
@@ -975,7 +1001,7 @@
         <v>1001 에디터에서 스킬 미리보기 모드(에디터에서만 사용)</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="str">
         <f>'[1]@game_type'!$A8</f>
         <v>EDITOR_SKILL_EDIT_MODE</v>
@@ -1000,30 +1026,30 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" customWidth="1"/>
-    <col min="5" max="5" width="20.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.59765625" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.625" customWidth="1"/>
     <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1058,7 +1084,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1093,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1128,7 +1154,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -1161,10 +1187,10 @@
         <v>54</v>
       </c>
       <c r="K5" s="4">
-        <v>1001101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+        <v>1001210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -1200,7 +1226,7 @@
         <v>1001115</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -1236,7 +1262,7 @@
         <v>1002115</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -1298,27 +1324,27 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,7 +1379,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1388,7 +1414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
@@ -1423,7 +1449,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>100101</v>
       </c>
@@ -1458,7 +1484,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>100102</v>
       </c>
@@ -1493,7 +1519,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>100103</v>
       </c>
@@ -1528,7 +1554,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>100104</v>
       </c>
@@ -1563,7 +1589,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>100201</v>
       </c>
@@ -1598,7 +1624,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>100202</v>
       </c>
@@ -1633,7 +1659,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>100203</v>
       </c>
@@ -1668,7 +1694,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>100204</v>
       </c>
@@ -1703,7 +1729,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>100301</v>
       </c>
@@ -1738,7 +1764,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>100302</v>
       </c>
@@ -1773,7 +1799,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>100303</v>
       </c>
@@ -1808,7 +1834,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>100304</v>
       </c>
@@ -1843,7 +1869,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>100401</v>
       </c>
@@ -1878,7 +1904,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>100402</v>
       </c>
@@ -1913,7 +1939,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>100403</v>
       </c>
@@ -1948,7 +1974,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>100404</v>
       </c>

--- a/Android/ExcelData/BossListTable.xlsx
+++ b/Android/ExcelData/BossListTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D480FD2-FA99-4E30-9762-322180249048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F342536F-F827-4AA4-B253-B02581BD9857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="1005" windowWidth="35010" windowHeight="19140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41535" yWindow="1830" windowWidth="34815" windowHeight="16545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="12" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="64">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -277,6 +277,17 @@
   </si>
   <si>
     <t>system_boss_name_001</t>
+  </si>
+  <si>
+    <t>스테이지 BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/BGM/BGM_BossBattle01</t>
   </si>
 </sst>
 </file>
@@ -356,7 +367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -379,13 +390,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -411,6 +433,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1025,7 +1056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
@@ -1318,10 +1349,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E92B23D-72D5-4693-8143-E5597E2FB87F}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1337,14 +1368,15 @@
     <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1378,8 +1410,11 @@
       <c r="K2" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1413,8 +1448,11 @@
       <c r="K3" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
@@ -1448,8 +1486,11 @@
       <c r="K4" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>100101</v>
       </c>
@@ -1483,8 +1524,11 @@
       <c r="K5" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>100102</v>
       </c>
@@ -1518,8 +1562,11 @@
       <c r="K6" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>100103</v>
       </c>
@@ -1553,8 +1600,11 @@
       <c r="K7" s="4">
         <v>90</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>100104</v>
       </c>
@@ -1588,8 +1638,11 @@
       <c r="K8" s="4">
         <v>120</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>100201</v>
       </c>
@@ -1623,8 +1676,11 @@
       <c r="K9" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>100202</v>
       </c>
@@ -1658,8 +1714,11 @@
       <c r="K10" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>100203</v>
       </c>
@@ -1693,8 +1752,11 @@
       <c r="K11" s="4">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>100204</v>
       </c>
@@ -1728,8 +1790,11 @@
       <c r="K12" s="4">
         <v>120</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>100301</v>
       </c>
@@ -1763,8 +1828,11 @@
       <c r="K13" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>100302</v>
       </c>
@@ -1798,8 +1866,11 @@
       <c r="K14" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>100303</v>
       </c>
@@ -1833,8 +1904,11 @@
       <c r="K15" s="4">
         <v>90</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>100304</v>
       </c>
@@ -1868,8 +1942,11 @@
       <c r="K16" s="4">
         <v>120</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>100401</v>
       </c>
@@ -1903,8 +1980,11 @@
       <c r="K17" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>100402</v>
       </c>
@@ -1938,8 +2018,11 @@
       <c r="K18" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>100403</v>
       </c>
@@ -1973,8 +2056,11 @@
       <c r="K19" s="4">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>100404</v>
       </c>
@@ -2007,6 +2093,9 @@
       </c>
       <c r="K20" s="4">
         <v>120</v>
+      </c>
+      <c r="L20" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/BossListTable.xlsx
+++ b/Android/ExcelData/BossListTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F342536F-F827-4AA4-B253-B02581BD9857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037DA1CA-4E7C-4B4A-8866-80E6C19509B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41535" yWindow="1830" windowWidth="34815" windowHeight="16545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39570" yWindow="885" windowWidth="34125" windowHeight="18165" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="12" r:id="rId1"/>
@@ -1056,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1254,7 +1254,7 @@
         <v>54</v>
       </c>
       <c r="K6" s="4">
-        <v>1001115</v>
+        <v>1003210</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1290,7 +1290,7 @@
         <v>54</v>
       </c>
       <c r="K7" s="4">
-        <v>1002115</v>
+        <v>1003210</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1326,7 +1326,7 @@
         <v>54</v>
       </c>
       <c r="K8" s="4">
-        <v>1003115</v>
+        <v>1003210</v>
       </c>
     </row>
   </sheetData>
@@ -1351,7 +1351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E92B23D-72D5-4693-8143-E5597E2FB87F}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>

--- a/Android/ExcelData/BossListTable.xlsx
+++ b/Android/ExcelData/BossListTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037DA1CA-4E7C-4B4A-8866-80E6C19509B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF00441D-B028-42D3-858F-9FA9E0D6C553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39570" yWindow="885" windowWidth="34125" windowHeight="18165" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="12" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="70">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,6 +288,26 @@
   </si>
   <si>
     <t>Assets/AssetResources/Audio/BGM/BGM_BossBattle01</t>
+  </si>
+  <si>
+    <t>보스 실루엣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss_silhouette_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/OutGame/Img_Boss_Lock</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/OutGame/Img_Boss_Lock02</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/OutGame/Img_Boss_Lock03</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/UI/OutGame/Img_Boss_Lock04</t>
   </si>
 </sst>
 </file>
@@ -511,13 +531,7 @@
       <sheetName val="Enums_01"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TRIBE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -610,13 +624,7 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
-      <sheetData sheetId="21">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>LIMIT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
@@ -624,13 +632,7 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>REWARD_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
       <sheetData sheetId="31"/>
       <sheetData sheetId="32"/>
@@ -1054,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1069,18 +1071,18 @@
     <col min="5" max="5" width="20.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.625" customWidth="1"/>
-    <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="26.625" customWidth="1"/>
+    <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1106,16 +1108,19 @@
         <v>46</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1141,16 +1146,19 @@
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="K3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1176,16 +1184,19 @@
         <v>47</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -1210,18 +1221,21 @@
       <c r="H5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="4">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$7,MATCH(J5,'!참조_ENUM'!$C$3:$C$7,0))</f>
-        <v>1</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="I5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$7,MATCH(K5,'!참조_ENUM'!$C$3:$C$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>1001210</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -1246,18 +1260,21 @@
       <c r="H6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="4">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$7,MATCH(J6,'!참조_ENUM'!$C$3:$C$7,0))</f>
-        <v>1</v>
-      </c>
-      <c r="J6" s="4" t="s">
+      <c r="I6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$7,MATCH(K6,'!참조_ENUM'!$C$3:$C$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>1003210</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -1282,18 +1299,21 @@
       <c r="H7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="4">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$7,MATCH(J7,'!참조_ENUM'!$C$3:$C$7,0))</f>
-        <v>1</v>
-      </c>
-      <c r="J7" s="4" t="s">
+      <c r="I7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$7,MATCH(K7,'!참조_ENUM'!$C$3:$C$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>1003210</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -1318,14 +1338,17 @@
       <c r="H8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="4">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$7,MATCH(J8,'!참조_ENUM'!$C$3:$C$7,0))</f>
-        <v>1</v>
-      </c>
-      <c r="J8" s="4" t="s">
+      <c r="I8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="4">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$7,MATCH(K8,'!참조_ENUM'!$C$3:$C$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>1003210</v>
       </c>
     </row>
@@ -1334,12 +1357,12 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AF24D3A8-B0E9-4D10-8F1D-0CC139A4C998}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$C$3:$C$7</xm:f>
           </x14:formula1>
-          <xm:sqref>J5:J8</xm:sqref>
+          <xm:sqref>K5:K8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
